--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
@@ -12,36 +12,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+  <si>
+    <t>FECHA</t>
+  </si>
   <si>
     <t>EMPLEADO</t>
   </si>
   <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>FECHA Y HORA</t>
+    <t>ENTRADA</t>
+  </si>
+  <si>
+    <t>SALIDA</t>
+  </si>
+  <si>
+    <t>ÁREA</t>
+  </si>
+  <si>
+    <t>27/12/2022</t>
+  </si>
+  <si>
+    <t>a1 a1</t>
+  </si>
+  <si>
+    <t>asesor 2 asesor2</t>
+  </si>
+  <si>
+    <t>asesor1 asesor1</t>
+  </si>
+  <si>
+    <t>diaz alex</t>
   </si>
   <si>
     <t>Diaz Esquerre Joan</t>
-  </si>
-  <si>
-    <t>ENTRADA</t>
-  </si>
-  <si>
-    <t>26/12/2022 04:50:35</t>
-  </si>
-  <si>
-    <t>SALIDA</t>
-  </si>
-  <si>
-    <t>26/12/2022 04:50:42</t>
-  </si>
-  <si>
-    <t>26/12/2022 04:56:02</t>
-  </si>
-  <si>
-    <t>26/12/2022 05:45:46</t>
   </si>
 </sst>
 </file>
@@ -122,9 +125,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.66796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.51171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.8984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.53515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.66796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.2421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.6875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -137,49 +141,57 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s" s="1">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>FECHA</t>
   </si>
@@ -29,22 +29,13 @@
     <t>ÁREA</t>
   </si>
   <si>
-    <t>27/12/2022</t>
-  </si>
-  <si>
-    <t>a1 a1</t>
-  </si>
-  <si>
-    <t>asesor 2 asesor2</t>
-  </si>
-  <si>
-    <t>asesor1 asesor1</t>
-  </si>
-  <si>
-    <t>diaz alex</t>
+    <t>28/12/2022</t>
   </si>
   <si>
     <t>Diaz Esquerre Joan</t>
+  </si>
+  <si>
+    <t>09:36:39 AM</t>
   </si>
 </sst>
 </file>
@@ -127,7 +118,7 @@
   <cols>
     <col min="1" max="1" width="11.53515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="17.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.2421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.4765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.6875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -161,38 +152,13 @@
       <c r="B2" t="s" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="1">
+      <c r="C2" t="s" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="1">
-        <v>10</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>FECHA</t>
   </si>
@@ -32,10 +32,43 @@
     <t>28/12/2022</t>
   </si>
   <si>
+    <t>a1 a1</t>
+  </si>
+  <si>
+    <t>asesor 2 asesor2</t>
+  </si>
+  <si>
+    <t>asesor1 asesor1</t>
+  </si>
+  <si>
+    <t>diaz alex</t>
+  </si>
+  <si>
+    <t>10:36:29 a. m.</t>
+  </si>
+  <si>
+    <t>10:40:11 a. m.</t>
+  </si>
+  <si>
+    <t>10:36:47 a. m.</t>
+  </si>
+  <si>
     <t>Diaz Esquerre Joan</t>
   </si>
   <si>
-    <t>09:36:39 AM</t>
+    <t>10:36:40 a. m.</t>
+  </si>
+  <si>
+    <t>10:39:57 a. m.</t>
+  </si>
+  <si>
+    <t>10:43:23 a. m.</t>
+  </si>
+  <si>
+    <t>10:36:55 a. m.</t>
+  </si>
+  <si>
+    <t>10:40:16 a. m.</t>
   </si>
 </sst>
 </file>
@@ -118,8 +151,11 @@
   <cols>
     <col min="1" max="1" width="11.53515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="17.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.4765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.6875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.6328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.6328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.6328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.6328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.6328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -152,14 +188,80 @@
       <c r="B2" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="1">
-        <v>7</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s" s="1">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>FECHA</t>
   </si>
@@ -32,43 +32,22 @@
     <t>28/12/2022</t>
   </si>
   <si>
-    <t>a1 a1</t>
-  </si>
-  <si>
-    <t>asesor 2 asesor2</t>
-  </si>
-  <si>
-    <t>asesor1 asesor1</t>
-  </si>
-  <si>
     <t>diaz alex</t>
   </si>
   <si>
-    <t>10:36:29 a. m.</t>
-  </si>
-  <si>
-    <t>10:40:11 a. m.</t>
-  </si>
-  <si>
-    <t>10:36:47 a. m.</t>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>12:49:35 p. m.</t>
   </si>
   <si>
     <t>Diaz Esquerre Joan</t>
   </si>
   <si>
-    <t>10:36:40 a. m.</t>
-  </si>
-  <si>
-    <t>10:39:57 a. m.</t>
-  </si>
-  <si>
-    <t>10:43:23 a. m.</t>
-  </si>
-  <si>
-    <t>10:36:55 a. m.</t>
-  </si>
-  <si>
-    <t>10:40:16 a. m.</t>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>12:49:18 p. m.</t>
   </si>
 </sst>
 </file>
@@ -151,11 +130,11 @@
   <cols>
     <col min="1" max="1" width="11.53515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="17.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.6875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.2421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="8.6875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="10.08203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -188,78 +167,31 @@
       <c r="B2" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" t="s" s="1">
+        <v>8</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
         <v>5</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>11</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="1">
+      <c r="G3" t="s" s="1">
         <v>10</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s" s="1">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>FECHA</t>
   </si>
@@ -29,25 +29,28 @@
     <t>ÁREA</t>
   </si>
   <si>
-    <t>28/12/2022</t>
+    <t>29/12/2022</t>
   </si>
   <si>
     <t>diaz alex</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>12:49:35 p. m.</t>
+    <t>Contabilidad</t>
   </si>
   <si>
     <t>Diaz Esquerre Joan</t>
   </si>
   <si>
-    <t>Ventas</t>
-  </si>
-  <si>
-    <t>12:49:18 p. m.</t>
+    <t>05:39:20 p. m.</t>
+  </si>
+  <si>
+    <t>06:22:52 p. m.</t>
+  </si>
+  <si>
+    <t>06:16:53 p. m.</t>
+  </si>
+  <si>
+    <t>06:23:17 p. m.</t>
   </si>
 </sst>
 </file>
@@ -130,11 +133,11 @@
   <cols>
     <col min="1" max="1" width="11.53515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="17.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.6875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.2421875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.6875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="10.08203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.84375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.84375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.84375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.84375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="12.25" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -167,9 +170,7 @@
       <c r="B2" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="1">
-        <v>8</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -182,16 +183,22 @@
         <v>5</v>
       </c>
       <c r="B3" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="1">
+      <c r="D3" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="1">
+        <v>12</v>
+      </c>
       <c r="G3" t="s" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="159">
   <si>
     <t>FECHA</t>
   </si>
@@ -29,28 +29,466 @@
     <t>ÁREA</t>
   </si>
   <si>
-    <t>29/12/2022</t>
-  </si>
-  <si>
-    <t>diaz alex</t>
+    <t>20/01/2023</t>
+  </si>
+  <si>
+    <t>Abarca Pintado Elizabeth</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Acosta Ayala Abelardo</t>
+  </si>
+  <si>
+    <t>Acuña Angulo Jhonny Antonio</t>
+  </si>
+  <si>
+    <t>Administración</t>
+  </si>
+  <si>
+    <t>Aranda Lalangui Jose Nelson</t>
+  </si>
+  <si>
+    <t>Balarezo Cercado Jimena Rafaela</t>
+  </si>
+  <si>
+    <t>Limpieza y Mantenimiento</t>
+  </si>
+  <si>
+    <t>Benavides Cabrera Eduardo</t>
+  </si>
+  <si>
+    <t>Benavides Rojas Vladimir Alfredo</t>
+  </si>
+  <si>
+    <t>08:11:34 a. m.</t>
+  </si>
+  <si>
+    <t>Benavidez Cabrera Fernando</t>
+  </si>
+  <si>
+    <t>Choferes</t>
+  </si>
+  <si>
+    <t>08:21:57 a. m.</t>
+  </si>
+  <si>
+    <t>Benites Juarez Erika Yesel</t>
   </si>
   <si>
     <t>Contabilidad</t>
   </si>
   <si>
+    <t>08:02:44 a. m.</t>
+  </si>
+  <si>
+    <t>03:11:32 p. m.</t>
+  </si>
+  <si>
+    <t>03:11:24 p. m.</t>
+  </si>
+  <si>
+    <t>Bernabe Diez Luis Alberto</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Cabrejos Carranza Irwin Esmir</t>
+  </si>
+  <si>
+    <t>Castillo Saucedo Alexa Fernanda</t>
+  </si>
+  <si>
+    <t>08:26:56 a. m.</t>
+  </si>
+  <si>
+    <t>03:05:05 p. m.</t>
+  </si>
+  <si>
+    <t>03:04:59 p. m.</t>
+  </si>
+  <si>
+    <t>Cieza Flores Vilma Socorro</t>
+  </si>
+  <si>
+    <t>Coronado Vilcherrez Maria Ysabel</t>
+  </si>
+  <si>
+    <t>Coronel Cespedes Juan David</t>
+  </si>
+  <si>
+    <t>Cruzado Balcazar Neisser</t>
+  </si>
+  <si>
+    <t>Cruzado Urpeque Angel Heber</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>08:43:38 a. m.</t>
+  </si>
+  <si>
+    <t>Diaz Esquerre Juan Alexis</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
     <t>Diaz Esquerre Joan</t>
   </si>
   <si>
-    <t>05:39:20 p. m.</t>
-  </si>
-  <si>
-    <t>06:22:52 p. m.</t>
-  </si>
-  <si>
-    <t>06:16:53 p. m.</t>
-  </si>
-  <si>
-    <t>06:23:17 p. m.</t>
+    <t>Diaz Mori Jennifer Jackeline</t>
+  </si>
+  <si>
+    <t>08:00:39 a. m.</t>
+  </si>
+  <si>
+    <t>Ferreyra Quevedo Rebeca de Fatima</t>
+  </si>
+  <si>
+    <t>08:20:45 a. m.</t>
+  </si>
+  <si>
+    <t>03:10:13 p. m.</t>
+  </si>
+  <si>
+    <t>01:03:50 p. m.</t>
+  </si>
+  <si>
+    <t>Gastulo Lopez Angie Carolina</t>
+  </si>
+  <si>
+    <t>08:26:45 a. m.</t>
+  </si>
+  <si>
+    <t>03:04:53 p. m.</t>
+  </si>
+  <si>
+    <t>03:04:48 p. m.</t>
+  </si>
+  <si>
+    <t>Granda Silva Ruffer Freddy</t>
+  </si>
+  <si>
+    <t>Guevara Manosalva Glend Mauricio</t>
+  </si>
+  <si>
+    <t>02:53:08 p. m.</t>
+  </si>
+  <si>
+    <t>Guevara Mena Yamir</t>
+  </si>
+  <si>
+    <t>07:55:08 a. m.</t>
+  </si>
+  <si>
+    <t>Gutierrez Chumacero Erinson David</t>
+  </si>
+  <si>
+    <t>08:05:13 a. m.</t>
+  </si>
+  <si>
+    <t>01:05:47 p. m.</t>
+  </si>
+  <si>
+    <t>Huaman Cruz Wilson Estevis</t>
+  </si>
+  <si>
+    <t>Lagos Eslava Enrique Omar</t>
+  </si>
+  <si>
+    <t>Recursos Humanos</t>
+  </si>
+  <si>
+    <t>08:11:58 a. m.</t>
+  </si>
+  <si>
+    <t>Leyva Olivera Gabriel Alejandro</t>
+  </si>
+  <si>
+    <t>08:13:16 a. m.</t>
+  </si>
+  <si>
+    <t>Loayza Palomino Lady Diana</t>
+  </si>
+  <si>
+    <t>08:15:16 a. m.</t>
+  </si>
+  <si>
+    <t>03:02:25 p. m.</t>
+  </si>
+  <si>
+    <t>03:02:09 p. m.</t>
+  </si>
+  <si>
+    <t>Lopez Berru Nanci</t>
+  </si>
+  <si>
+    <t>08:00:29 a. m.</t>
+  </si>
+  <si>
+    <t>03:11:07 p. m.</t>
+  </si>
+  <si>
+    <t>03:10:55 p. m.</t>
+  </si>
+  <si>
+    <t>Medina Chiscul Enrique Aurelio</t>
+  </si>
+  <si>
+    <t>08:04:20 a. m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejia Ochoa Carlo Enrique </t>
+  </si>
+  <si>
+    <t>07:42:08 a. m.</t>
+  </si>
+  <si>
+    <t>03:15:15 p. m.</t>
+  </si>
+  <si>
+    <t>03:15:02 p. m.</t>
+  </si>
+  <si>
+    <t>Moreno Davila David</t>
+  </si>
+  <si>
+    <t>08:12:32 a. m.</t>
+  </si>
+  <si>
+    <t>03:01:01 p. m.</t>
+  </si>
+  <si>
+    <t>01:03:57 p. m.</t>
+  </si>
+  <si>
+    <t>Ñiquen Ortiz Amy Llany</t>
+  </si>
+  <si>
+    <t>08:00:53 a. m.</t>
+  </si>
+  <si>
+    <t>02:57:26 p. m.</t>
+  </si>
+  <si>
+    <t>01:05:56 p. m.</t>
+  </si>
+  <si>
+    <t>Ocaña Bueno Ruth Carina</t>
+  </si>
+  <si>
+    <t>Cobranza</t>
+  </si>
+  <si>
+    <t>08:10:17 a. m.</t>
+  </si>
+  <si>
+    <t>02:58:40 p. m.</t>
+  </si>
+  <si>
+    <t>01:37:23 p. m.</t>
+  </si>
+  <si>
+    <t>Odar Juarez Claudia Lizeth</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>07:55:39 a. m.</t>
+  </si>
+  <si>
+    <t>03:14:37 p. m.</t>
+  </si>
+  <si>
+    <t>01:07:37 p. m.</t>
+  </si>
+  <si>
+    <t>Padilla Valdivia José Daniel</t>
+  </si>
+  <si>
+    <t>Palomino Anastacio Juan Benito</t>
+  </si>
+  <si>
+    <t>08:09:54 a. m.</t>
+  </si>
+  <si>
+    <t>Paredes Quispe Paola</t>
+  </si>
+  <si>
+    <t>Perez Uriarte Liliana Jesus</t>
+  </si>
+  <si>
+    <t>07:35:23 a. m.</t>
+  </si>
+  <si>
+    <t>Prado Ignacio Nelly del Pilar</t>
+  </si>
+  <si>
+    <t>01:13:16 p. m.</t>
+  </si>
+  <si>
+    <t>02:58:31 p. m.</t>
+  </si>
+  <si>
+    <t>01:13:23 p. m.</t>
+  </si>
+  <si>
+    <t>05:10:21 p. m.</t>
+  </si>
+  <si>
+    <t>Quispe Ducos Ruben Omar</t>
+  </si>
+  <si>
+    <t>08:09:32 a. m.</t>
+  </si>
+  <si>
+    <t>Quispe Santisteban Jesus Juan David</t>
+  </si>
+  <si>
+    <t>07:56:19 a. m.</t>
+  </si>
+  <si>
+    <t>02:44:20 p. m.</t>
+  </si>
+  <si>
+    <t>01:03:11 p. m.</t>
+  </si>
+  <si>
+    <t>Rinza Mendoza Rolando</t>
+  </si>
+  <si>
+    <t>08:00:07 a. m.</t>
+  </si>
+  <si>
+    <t>Rinza Mendoza Teofilo</t>
+  </si>
+  <si>
+    <t>Romero Malca Irving Nicolas</t>
+  </si>
+  <si>
+    <t>Samame Bonilla Alvaro Enrique</t>
+  </si>
+  <si>
+    <t>Samame Castillo Carlos Andres</t>
+  </si>
+  <si>
+    <t>Sanchez Llenque Mayra Xiomara</t>
+  </si>
+  <si>
+    <t>Siesquen Ventura Pablo Renato</t>
+  </si>
+  <si>
+    <t>08:10:27 a. m.</t>
+  </si>
+  <si>
+    <t>Silva Piedra Anali</t>
+  </si>
+  <si>
+    <t>Recepción</t>
+  </si>
+  <si>
+    <t>07:35:36 a. m.</t>
+  </si>
+  <si>
+    <t>02:52:54 p. m.</t>
+  </si>
+  <si>
+    <t>01:08:48 p. m.</t>
+  </si>
+  <si>
+    <t>Suclupe Siesquen Yanet</t>
+  </si>
+  <si>
+    <t>08:03:29 a. m.</t>
+  </si>
+  <si>
+    <t>03:00:33 p. m.</t>
+  </si>
+  <si>
+    <t>01:00:34 p. m.</t>
+  </si>
+  <si>
+    <t>Suyon Mechan Luis Guerson</t>
+  </si>
+  <si>
+    <t>Torres Farro Ines Aracely</t>
+  </si>
+  <si>
+    <t>08:35:10 a. m.</t>
+  </si>
+  <si>
+    <t>Vásquez Tenorio Hamilton</t>
+  </si>
+  <si>
+    <t>08:10:07 a. m.</t>
+  </si>
+  <si>
+    <t>Vazquez Rioja Wagner Agapito</t>
+  </si>
+  <si>
+    <t>08:03:51 a. m.</t>
+  </si>
+  <si>
+    <t>02:59:19 p. m.</t>
+  </si>
+  <si>
+    <t>Venegas Guitierrez Vanessa Eufemia Asuncion</t>
+  </si>
+  <si>
+    <t>08:08:04 a. m.</t>
+  </si>
+  <si>
+    <t>Venegas Gutierrez Cinthia</t>
+  </si>
+  <si>
+    <t>08:08:11 a. m.</t>
+  </si>
+  <si>
+    <t>Villalobos Sandoval Priscila Judith</t>
+  </si>
+  <si>
+    <t>08:07:06 a. m.</t>
+  </si>
+  <si>
+    <t>02:58:28 p. m.</t>
+  </si>
+  <si>
+    <t>01:37:33 p. m.</t>
+  </si>
+  <si>
+    <t>Yarango Monteza Leydi Yuli</t>
+  </si>
+  <si>
+    <t>08:09:47 a. m.</t>
+  </si>
+  <si>
+    <t>Yunis Olivera Saulo Farid</t>
+  </si>
+  <si>
+    <t>08:17:53 a. m.</t>
+  </si>
+  <si>
+    <t>Yuyas Nunton Eric Cristian</t>
+  </si>
+  <si>
+    <t>08:34:28 a. m.</t>
+  </si>
+  <si>
+    <t>02:04:49 p. m.</t>
+  </si>
+  <si>
+    <t>01:02:37 p. m.</t>
+  </si>
+  <si>
+    <t>Zuloeta Ramos Andy René</t>
+  </si>
+  <si>
+    <t>08:11:12 a. m.</t>
   </si>
 </sst>
 </file>
@@ -132,12 +570,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="11.53515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.84375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.84375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.84375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.84375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="12.25" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -185,19 +623,1095 @@
       <c r="B3" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="1">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="D3" t="s" s="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="E3" t="s" s="1">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" t="s" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="F3" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s" s="1">
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" t="s" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" t="s" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" t="s" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" t="s" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" t="s" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" t="s" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" t="s" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" t="s" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="E34" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s" s="1">
+        <v>83</v>
+      </c>
+      <c r="E35" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" t="s" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="E36" t="s" s="1">
+        <v>86</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s" s="1">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s" s="1">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" t="s" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s" s="1">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s" s="1">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s" s="1">
+        <v>97</v>
+      </c>
+      <c r="E38" t="s" s="1">
+        <v>96</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" t="s" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s" s="1">
+        <v>100</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" t="s" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s" s="1">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s" s="1">
+        <v>103</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" t="s" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="D43" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s" s="1">
+        <v>106</v>
+      </c>
+      <c r="F43" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="G43" t="s" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" t="s" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s" s="1">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="E45" t="s" s="1">
+        <v>113</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" t="s" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s" s="1">
+        <v>115</v>
+      </c>
+      <c r="C46" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s" s="1">
+        <v>117</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" t="s" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>118</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" t="s" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="C53" t="s" s="1">
+        <v>126</v>
+      </c>
+      <c r="D53" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="E53" t="s" s="1">
+        <v>127</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" t="s" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s" s="1">
+        <v>129</v>
+      </c>
+      <c r="C54" t="s" s="1">
+        <v>130</v>
+      </c>
+      <c r="D54" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="E54" t="s" s="1">
+        <v>131</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" t="s" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s" s="1">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s" s="1">
+        <v>135</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s" s="1">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s" s="1">
+        <v>137</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="C58" t="s" s="1">
+        <v>139</v>
+      </c>
+      <c r="D58" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" t="s" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="C59" t="s" s="1">
+        <v>142</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s" s="1">
+        <v>143</v>
+      </c>
+      <c r="C60" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="C61" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="D61" t="s" s="1">
+        <v>148</v>
+      </c>
+      <c r="E61" t="s" s="1">
+        <v>147</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" t="s" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s" s="1">
+        <v>149</v>
+      </c>
+      <c r="C62" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s" s="1">
+        <v>151</v>
+      </c>
+      <c r="C63" t="s" s="1">
+        <v>152</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s" s="1">
+        <v>153</v>
+      </c>
+      <c r="C64" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="D64" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="E64" t="s" s="1">
+        <v>155</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" t="s" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s" s="1">
+        <v>157</v>
+      </c>
+      <c r="C65" t="s" s="1">
+        <v>158</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" t="s" s="1">
         <v>7</v>
       </c>
     </row>

--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="55">
   <si>
     <t>FECHA</t>
   </si>
@@ -29,13 +29,154 @@
     <t>ÁREA</t>
   </si>
   <si>
+    <t>MINUTOS DE TARDANZA</t>
+  </si>
+  <si>
+    <t>01/01/2023</t>
+  </si>
+  <si>
+    <t>Benavides Bernardo</t>
+  </si>
+  <si>
+    <t>empleado</t>
+  </si>
+  <si>
+    <t>cajo maria</t>
+  </si>
+  <si>
+    <t>Diaz Esquerre Joan</t>
+  </si>
+  <si>
+    <t>rios ricardo</t>
+  </si>
+  <si>
+    <t>02/01/2023</t>
+  </si>
+  <si>
+    <t>03/01/2023</t>
+  </si>
+  <si>
+    <t>04/01/2023</t>
+  </si>
+  <si>
+    <t>05/01/2023</t>
+  </si>
+  <si>
+    <t>06/01/2023</t>
+  </si>
+  <si>
+    <t>07/01/2023</t>
+  </si>
+  <si>
+    <t>08/01/2023</t>
+  </si>
+  <si>
+    <t>09/01/2023</t>
+  </si>
+  <si>
+    <t>10/01/2023</t>
+  </si>
+  <si>
+    <t>08:00:00 a. m.</t>
+  </si>
+  <si>
+    <t>03:00:00 p. m.</t>
+  </si>
+  <si>
+    <t>08:03:27 a. m.</t>
+  </si>
+  <si>
+    <t>01:00:00 p. m.</t>
+  </si>
+  <si>
+    <t>06:00:00 p. m.</t>
+  </si>
+  <si>
+    <t>11/01/2023</t>
+  </si>
+  <si>
+    <t>08:04:42 a. m.</t>
+  </si>
+  <si>
+    <t>03:06:00 p. m.</t>
+  </si>
+  <si>
+    <t>01:04:00 p. m.</t>
+  </si>
+  <si>
+    <t>12/01/2023</t>
+  </si>
+  <si>
+    <t>13/01/2023</t>
+  </si>
+  <si>
+    <t>14/01/2023</t>
+  </si>
+  <si>
+    <t>15/01/2023</t>
+  </si>
+  <si>
+    <t>16/01/2023</t>
+  </si>
+  <si>
+    <t>17/01/2023</t>
+  </si>
+  <si>
+    <t>18/01/2023</t>
+  </si>
+  <si>
+    <t>19/01/2023</t>
+  </si>
+  <si>
+    <t>20/01/2023</t>
+  </si>
+  <si>
+    <t>21/01/2023</t>
+  </si>
+  <si>
+    <t>22/01/2023</t>
+  </si>
+  <si>
+    <t>23/01/2023</t>
+  </si>
+  <si>
+    <t>08:04:52 a. m.</t>
+  </si>
+  <si>
+    <t>24/01/2023</t>
+  </si>
+  <si>
+    <t>08:03:17 a. m.</t>
+  </si>
+  <si>
     <t>25/01/2023</t>
   </si>
   <si>
-    <t>Diaz Esquerre Joan</t>
-  </si>
-  <si>
-    <t>empleado</t>
+    <t>08:03:55 a. m.</t>
+  </si>
+  <si>
+    <t>26/01/2023</t>
+  </si>
+  <si>
+    <t>27/01/2023</t>
+  </si>
+  <si>
+    <t>03:05:08 p. m.</t>
+  </si>
+  <si>
+    <t>28/01/2023</t>
+  </si>
+  <si>
+    <t>08:10:00 a. m.</t>
+  </si>
+  <si>
+    <t>29/01/2023</t>
+  </si>
+  <si>
+    <t>30/01/2023</t>
+  </si>
+  <si>
+    <t>31/01/2023</t>
   </si>
 </sst>
 </file>
@@ -116,13 +257,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.53515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.2421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.6875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.2421875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.6875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="9.9140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.80859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.7421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.84375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.84375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.84375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.84375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="27.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -147,21 +289,2073 @@
       <c r="G1" t="s" s="2">
         <v>4</v>
       </c>
+      <c r="H1" t="s" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" t="s" s="1">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="B55" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="B56" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="B57" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B62" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B64" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B65" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B66" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B67" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B69" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B71" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B73" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B74" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B75" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="B80" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="B81" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B82" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B83" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B85" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="B86" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="B87" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="B88" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="B89" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="B90" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="B91" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="B92" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="D92" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="E92" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="F92" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="G92" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H92" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="B94" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="B95" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="B96" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="D96" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="E96" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="F96" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="B97" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="B98" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="B99" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="B100" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="D100" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="E100" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="F100" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="B101" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="B102" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="B103" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="B104" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="D104" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="E104" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="F104" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="B105" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="B106" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="B107" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="B108" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="D108" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="E108" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="F108" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="G108" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="H108" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="B109" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="B110" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="B111" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="B112" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="D112" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="E112" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="F112" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H112" s="1" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="B113" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="B114" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="B115" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="B116" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="B117" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="B118" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="B119" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H119" s="1"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="B120" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="B121" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H121" s="1"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="B122" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="B123" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="B124" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="B125" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H125" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
@@ -47,7 +47,7 @@
     <t>Diaz Esquerre Joan</t>
   </si>
   <si>
-    <t>08:03:00 a. m.</t>
+    <t>08:11:00 a. m.</t>
   </si>
   <si>
     <t>03:09:00 p. m.</t>
@@ -231,7 +231,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">

--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>EMPLEADO</t>
   </si>
@@ -41,22 +41,13 @@
     <t>DOMINGO</t>
   </si>
   <si>
-    <t>asesor1 asesor1</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>E:08:00:00 a. m. / S:06:00:00 p. m.</t>
+    <t>GARCIA ALAN</t>
+  </si>
+  <si>
+    <t>Contabilidad</t>
   </si>
   <si>
     <t>E:- / S:-</t>
-  </si>
-  <si>
-    <t>asesor 2 asesor2</t>
-  </si>
-  <si>
-    <t>Contabilidad</t>
   </si>
 </sst>
 </file>
@@ -137,13 +128,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="31.62890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="31.62890625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.62890625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="31.62890625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="31.62890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.91015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.23046875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="8.921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="10.13671875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="10.07421875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.24609375" customWidth="true" bestFit="true"/>
   </cols>
@@ -200,39 +191,10 @@
         <v>11</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
@@ -6,48 +6,63 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Reporte Semanal Asistencia" r:id="rId3" sheetId="1"/>
+    <sheet name="Asistencia" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+  <si>
+    <t>FECHA</t>
+  </si>
   <si>
     <t>EMPLEADO</t>
   </si>
   <si>
-    <t>AREA</t>
-  </si>
-  <si>
-    <t>LUNES</t>
-  </si>
-  <si>
-    <t>MARTES</t>
-  </si>
-  <si>
-    <t>MIERCOLES</t>
-  </si>
-  <si>
-    <t>JUEVES</t>
-  </si>
-  <si>
-    <t>VIERNES</t>
-  </si>
-  <si>
-    <t>SABADO</t>
-  </si>
-  <si>
-    <t>DOMINGO</t>
+    <t>ENTRADA</t>
+  </si>
+  <si>
+    <t>SALIDA</t>
+  </si>
+  <si>
+    <t>ÁREA</t>
+  </si>
+  <si>
+    <t>MINUTOS DE TARDANZA</t>
+  </si>
+  <si>
+    <t>09/08/2023</t>
+  </si>
+  <si>
+    <t>a1 a1</t>
+  </si>
+  <si>
+    <t>Administracion</t>
+  </si>
+  <si>
+    <t>asesor 2 asesor2</t>
+  </si>
+  <si>
+    <t>Contabilidad</t>
+  </si>
+  <si>
+    <t>asesor1 asesor1</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>08:00:00 AM</t>
+  </si>
+  <si>
+    <t>01:00:00 PM</t>
+  </si>
+  <si>
+    <t>diaz alex</t>
   </si>
   <si>
     <t>GARCIA ALAN</t>
-  </si>
-  <si>
-    <t>Contabilidad</t>
-  </si>
-  <si>
-    <t>E:- / S:-</t>
   </si>
 </sst>
 </file>
@@ -128,15 +143,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.18359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.91015625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.87890625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.23046875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="10.13671875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="10.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.4765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.33984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.2421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="8.6875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.51953125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="27.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -153,49 +167,103 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="H1" t="s" s="2">
         <v>5</v>
-      </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="1">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="1">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s" s="1">
-        <v>11</v>
-      </c>
+      <c r="C4" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Asistencia.xlsx
@@ -32,7 +32,7 @@
     <t>MINUTOS DE TARDANZA</t>
   </si>
   <si>
-    <t>09/08/2023</t>
+    <t>14/08/2023</t>
   </si>
   <si>
     <t>a1 a1</t>
@@ -41,6 +41,9 @@
     <t>Administracion</t>
   </si>
   <si>
+    <t>10:43:01 AM</t>
+  </si>
+  <si>
     <t>asesor 2 asesor2</t>
   </si>
   <si>
@@ -53,13 +56,10 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>08:00:00 AM</t>
-  </si>
-  <si>
-    <t>01:00:00 PM</t>
-  </si>
-  <si>
     <t>diaz alex</t>
+  </si>
+  <si>
+    <t>10:46:52 AM</t>
   </si>
   <si>
     <t>GARCIA ALAN</t>
@@ -143,10 +143,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.4765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.33984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.3671875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.6875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.2421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="8.6875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.51953125" customWidth="true" bestFit="true"/>
@@ -186,28 +186,32 @@
       <c r="B2" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" t="s" s="1">
+        <v>9</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="n">
+        <v>153.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
         <v>6</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" t="s" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -216,38 +220,36 @@
         <v>6</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="1">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0.0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
         <v>6</v>
       </c>
       <c r="B5" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>156.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
@@ -261,7 +263,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" t="s" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1"/>
     </row>
